--- a/Testning/För Testaren.xlsx
+++ b/Testning/För Testaren.xlsx
@@ -4990,7 +4990,7 @@
   <dimension ref="A4:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testning/För Testaren.xlsx
+++ b/Testning/För Testaren.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yggdrasil\Desktop\eximinationsprojekt\eximinationsarbete2017\Testning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7032" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="8190" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Michael Nilsson SLAGLJUD" sheetId="1" r:id="rId1"/>
@@ -523,7 +518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1129,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1143,28 +1138,28 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1200,7 +1195,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1216,7 +1211,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1229,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1257,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1277,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1297,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1317,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1337,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1357,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1377,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +1397,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1417,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1437,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1457,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1477,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1498,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
@@ -1523,7 +1518,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
@@ -1545,7 +1540,7 @@
       <c r="O19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1564,7 @@
       <c r="O20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1584,7 +1579,7 @@
       <c r="L21" s="10"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -1603,7 +1598,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1619,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1661,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1693,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1774,7 @@
       </c>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +1955,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +1981,7 @@
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2007,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2033,7 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>37</v>
       </c>
@@ -2064,7 +2059,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -2090,7 +2085,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -2116,7 +2111,7 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
@@ -2142,7 +2137,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2156,7 +2151,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2174,7 +2169,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2189,7 +2184,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2218,20 +2213,20 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -2261,7 +2256,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -2278,7 +2273,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -2300,7 +2295,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -2329,7 +2324,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2350,7 +2345,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -2371,7 +2366,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -2392,7 +2387,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -2413,7 +2408,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -2434,7 +2429,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -2455,7 +2450,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -2478,7 +2473,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -2499,7 +2494,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -2520,7 +2515,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -2541,7 +2536,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -2562,7 +2557,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -2583,7 +2578,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -2604,7 +2599,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -2625,7 +2620,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -2646,7 +2641,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2661,7 +2656,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -2678,7 +2673,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -2702,7 +2697,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -2745,7 +2740,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -3016,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -3043,7 +3038,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -3070,7 +3065,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -3097,7 +3092,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -3124,7 +3119,7 @@
       </c>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -3151,7 +3146,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -3178,7 +3173,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -3205,7 +3200,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -3232,7 +3227,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -3260,19 +3255,19 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -3302,7 +3297,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -3319,7 +3314,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -3341,7 +3336,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -3370,7 +3365,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -3391,7 +3386,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -3412,7 +3407,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -3433,7 +3428,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -3454,7 +3449,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -3475,7 +3470,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -3496,7 +3491,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -3519,7 +3514,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -3540,7 +3535,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -3561,7 +3556,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -3582,7 +3577,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -3603,7 +3598,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -3624,7 +3619,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -3645,7 +3640,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -3666,7 +3661,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -3687,7 +3682,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3702,7 +3697,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -3719,7 +3714,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -3743,7 +3738,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -3786,7 +3781,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -3819,7 +3814,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -3895,7 +3890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -3975,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -4012,7 +4007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -4049,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -4076,7 +4071,7 @@
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -4101,7 +4096,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -4128,7 +4123,7 @@
       </c>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -4155,7 +4150,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -4182,7 +4177,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -4205,7 +4200,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -4230,7 +4225,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -4253,7 +4248,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -4281,18 +4276,18 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -4322,7 +4317,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -4339,7 +4334,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -4361,7 +4356,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -4390,7 +4385,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -4411,7 +4406,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -4432,7 +4427,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -4453,7 +4448,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -4474,7 +4469,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -4495,7 +4490,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -4516,7 +4511,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -4539,7 +4534,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -4560,7 +4555,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -4581,7 +4576,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -4602,7 +4597,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -4623,7 +4618,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -4644,7 +4639,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -4665,7 +4660,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -4686,7 +4681,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -4707,7 +4702,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4722,7 +4717,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -4739,7 +4734,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -4763,7 +4758,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -4806,7 +4801,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -4837,7 +4832,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -4878,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>4</v>
@@ -4915,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -4954,7 +4949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -4993,7 +4988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -5069,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -5092,7 +5087,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -5115,7 +5110,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -5140,7 +5135,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -5163,7 +5158,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -5188,7 +5183,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -5211,7 +5206,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -5234,7 +5229,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -5257,7 +5252,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -5285,18 +5280,18 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -5326,7 +5321,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -5343,7 +5338,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -5365,7 +5360,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -5396,7 +5391,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -5417,7 +5412,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -5438,7 +5433,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -5459,7 +5454,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -5480,7 +5475,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -5501,7 +5496,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -5522,7 +5517,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -5545,7 +5540,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -5566,7 +5561,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -5587,7 +5582,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -5608,7 +5603,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -5629,7 +5624,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -5650,7 +5645,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -5671,7 +5666,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -5692,7 +5687,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -5713,7 +5708,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5728,7 +5723,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -5745,7 +5740,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -5769,7 +5764,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -5814,7 +5809,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -6057,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -6080,7 +6075,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -6103,7 +6098,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -6126,7 +6121,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -6149,7 +6144,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -6172,7 +6167,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -6195,7 +6190,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -6218,7 +6213,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -6241,7 +6236,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -6269,18 +6264,18 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -6310,7 +6305,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -6327,7 +6322,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -6349,7 +6344,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -6380,7 +6375,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -6401,7 +6396,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -6422,7 +6417,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -6443,7 +6438,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -6464,7 +6459,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -6485,7 +6480,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -6506,7 +6501,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -6529,7 +6524,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -6550,7 +6545,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -6571,7 +6566,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -6592,7 +6587,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -6613,7 +6608,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -6634,7 +6629,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -6655,7 +6650,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -6676,7 +6671,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -6697,7 +6692,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6712,7 +6707,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -6729,7 +6724,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -6753,7 +6748,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -6798,7 +6793,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -7041,7 +7036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -7064,7 +7059,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -7087,7 +7082,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -7110,7 +7105,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -7133,7 +7128,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -7156,7 +7151,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -7179,7 +7174,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -7202,7 +7197,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -7225,7 +7220,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -7253,20 +7248,20 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -7296,7 +7291,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
         <v>35</v>
@@ -7313,7 +7308,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="18" t="s">
         <v>1</v>
@@ -7335,7 +7330,7 @@
       <c r="N8" s="10"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>0</v>
@@ -7366,7 +7361,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -7387,7 +7382,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>3</v>
@@ -7408,7 +7403,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>4</v>
@@ -7429,7 +7424,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>5</v>
@@ -7450,7 +7445,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -7471,7 +7466,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -7492,7 +7487,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -7515,7 +7510,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>9</v>
@@ -7536,7 +7531,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -7557,7 +7552,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>11</v>
@@ -7578,7 +7573,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -7599,7 +7594,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>37</v>
@@ -7620,7 +7615,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="19" t="s">
         <v>40</v>
@@ -7641,7 +7636,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="19" t="s">
         <v>39</v>
@@ -7662,7 +7657,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="20" t="s">
         <v>38</v>
@@ -7683,7 +7678,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -7698,7 +7693,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -7715,7 +7710,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="18" t="s">
         <v>1</v>
@@ -7747,7 +7742,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>0</v>
@@ -7792,7 +7787,7 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -8035,7 +8030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>9</v>
@@ -8058,7 +8053,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>10</v>
@@ -8081,7 +8076,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="7" t="s">
         <v>11</v>
@@ -8104,7 +8099,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="7" t="s">
         <v>15</v>
@@ -8127,7 +8122,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>37</v>
@@ -8150,7 +8145,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="19" t="s">
         <v>40</v>
@@ -8173,7 +8168,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="19" t="s">
         <v>39</v>
@@ -8196,7 +8191,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="20" t="s">
         <v>38</v>
@@ -8219,7 +8214,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="17"/>
       <c r="D44" s="12"/>
@@ -8247,20 +8242,20 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -8290,7 +8285,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -8307,7 +8302,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -8329,7 +8324,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -8360,7 +8355,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -8381,7 +8376,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -8402,7 +8397,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -8423,7 +8418,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -8444,7 +8439,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -8465,7 +8460,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -8486,7 +8481,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -8509,7 +8504,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -8530,7 +8525,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -8551,7 +8546,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -8572,7 +8567,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -8593,7 +8588,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -8614,7 +8609,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -8635,7 +8630,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -8656,7 +8651,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -8677,7 +8672,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -8692,7 +8687,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -8709,7 +8704,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -8741,7 +8736,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -8786,7 +8781,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -9025,7 +9020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -9048,7 +9043,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -9071,7 +9066,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -9094,7 +9089,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -9117,7 +9112,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -9140,7 +9135,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -9163,7 +9158,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -9186,7 +9181,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -9209,7 +9204,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -9237,19 +9232,19 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="3:17" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -9279,7 +9274,7 @@
       <c r="O5" s="10"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -9296,7 +9291,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="3:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="75" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
@@ -9318,7 +9313,7 @@
       <c r="O7" s="10"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
         <v>0</v>
@@ -9349,7 +9344,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>2</v>
@@ -9370,7 +9365,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
         <v>3</v>
@@ -9391,7 +9386,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
         <v>4</v>
@@ -9412,7 +9407,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="s">
         <v>5</v>
@@ -9433,7 +9428,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -9454,7 +9449,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -9475,7 +9470,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -9498,7 +9493,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -9519,7 +9514,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17" s="10"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -9540,7 +9535,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
         <v>11</v>
@@ -9561,7 +9556,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="10"/>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -9582,7 +9577,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="10"/>
       <c r="D20" s="19" t="s">
         <v>37</v>
@@ -9603,7 +9598,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21" s="10"/>
       <c r="D21" s="19" t="s">
         <v>40</v>
@@ -9624,7 +9619,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
       <c r="D22" s="19" t="s">
         <v>39</v>
@@ -9645,7 +9640,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23" s="20" t="s">
         <v>38</v>
@@ -9666,7 +9661,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -9681,7 +9676,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="6" t="s">
         <v>36</v>
@@ -9698,7 +9693,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="3:19" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:19" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
       <c r="D26" s="18" t="s">
         <v>1</v>
@@ -9730,7 +9725,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="3:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19" ht="45" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
       <c r="D27" s="7" t="s">
         <v>0</v>
@@ -9775,7 +9770,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
       <c r="D28" s="7" t="s">
         <v>2</v>
@@ -10018,7 +10013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -10041,7 +10036,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
         <v>10</v>
@@ -10064,7 +10059,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C37" s="10"/>
       <c r="D37" s="7" t="s">
         <v>11</v>
@@ -10087,7 +10082,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C38" s="10"/>
       <c r="D38" s="7" t="s">
         <v>15</v>
@@ -10110,7 +10105,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
       <c r="D39" s="19" t="s">
         <v>37</v>
@@ -10133,7 +10128,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
       <c r="D40" s="19" t="s">
         <v>40</v>
@@ -10156,7 +10151,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="19" t="s">
         <v>39</v>
@@ -10179,7 +10174,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
       <c r="D42" s="20" t="s">
         <v>38</v>
@@ -10202,7 +10197,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="10"/>
       <c r="D43" s="17"/>
       <c r="E43" s="12"/>
@@ -10230,19 +10225,19 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C4" t="s">
         <v>43</v>
       </c>
@@ -10272,7 +10267,7 @@
       <c r="N5" s="10"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
         <v>35</v>
@@ -10289,7 +10284,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="18" t="s">
         <v>1</v>
@@ -10311,7 +10306,7 @@
       <c r="N7" s="10"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>0</v>
@@ -10342,7 +10337,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -10363,7 +10358,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>3</v>
@@ -10384,7 +10379,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -10405,7 +10400,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -10426,7 +10421,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -10447,7 +10442,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -10468,7 +10463,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -10491,7 +10486,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>9</v>
@@ -10512,7 +10507,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>10</v>
@@ -10533,7 +10528,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>11</v>
@@ -10554,7 +10549,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>15</v>
@@ -10575,7 +10570,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>37</v>
@@ -10596,7 +10591,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>40</v>
@@ -10617,7 +10612,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="19" t="s">
         <v>39</v>
@@ -10638,7 +10633,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="20" t="s">
         <v>38</v>
@@ -10659,7 +10654,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -10674,7 +10669,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -10691,7 +10686,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="18" t="s">
         <v>1</v>
@@ -10723,7 +10718,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>0</v>
@@ -10768,7 +10763,7 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -10797,7 +10792,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>3</v>
@@ -10834,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>4</v>
@@ -10871,7 +10866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>5</v>
@@ -10908,7 +10903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>6</v>
@@ -10945,7 +10940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>7</v>
@@ -10978,7 +10973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>8</v>
@@ -11011,7 +11006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>9</v>
@@ -11034,7 +11029,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>10</v>
@@ -11057,7 +11052,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>11</v>
@@ -11080,7 +11075,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="7" t="s">
         <v>15</v>
@@ -11103,7 +11098,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>37</v>
@@ -11126,7 +11121,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>40</v>
@@ -11149,7 +11144,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="19" t="s">
         <v>39</v>
@@ -11172,7 +11167,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="20" t="s">
         <v>38</v>
@@ -11195,7 +11190,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="17"/>
       <c r="D43" s="12"/>
@@ -11223,20 +11218,20 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>43</v>
@@ -11267,7 +11262,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -11284,7 +11279,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -11304,7 +11299,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -11333,7 +11328,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -11354,7 +11349,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -11375,7 +11370,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -11396,7 +11391,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -11417,7 +11412,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -11438,7 +11433,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -11459,7 +11454,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -11482,7 +11477,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -11503,7 +11498,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -11524,7 +11519,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -11545,7 +11540,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -11566,7 +11561,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -11587,7 +11582,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -11608,7 +11603,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -11629,7 +11624,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -11650,7 +11645,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -11665,7 +11660,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -11682,7 +11677,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -11704,7 +11699,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -11750,7 +11745,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -11783,7 +11778,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -11824,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="7" t="s">
         <v>4</v>
@@ -11865,7 +11860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -11906,7 +11901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -11947,7 +11942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -11984,7 +11979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -12021,7 +12016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -12048,7 +12043,7 @@
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -12075,7 +12070,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -12102,7 +12097,7 @@
       </c>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -12129,7 +12124,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -12156,7 +12151,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -12183,7 +12178,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -12210,7 +12205,7 @@
       </c>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -12237,7 +12232,7 @@
       </c>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -12265,19 +12260,19 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="24.77734375" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -12313,7 +12308,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -12329,7 +12324,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
@@ -12345,7 +12340,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -12375,7 +12370,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -12395,7 +12390,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -12415,7 +12410,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -12435,7 +12430,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -12455,7 +12450,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -12475,7 +12470,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -12495,7 +12490,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -12515,7 +12510,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -12535,7 +12530,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
@@ -12555,7 +12550,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -12575,7 +12570,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -12595,7 +12590,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>37</v>
       </c>
@@ -12616,7 +12611,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
@@ -12636,7 +12631,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -12657,7 +12652,7 @@
       <c r="L21" s="10"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
@@ -12680,7 +12675,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -12694,7 +12689,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -12713,7 +12708,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>1</v>
       </c>
@@ -12732,7 +12727,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -12776,7 +12771,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -12912,7 +12907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -12948,7 +12943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -12980,7 +12975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>8</v>
       </c>
@@ -13012,7 +13007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
@@ -13037,7 +13032,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -13059,7 +13054,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
@@ -13081,7 +13076,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
@@ -13103,7 +13098,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
@@ -13125,7 +13120,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>40</v>
       </c>
@@ -13149,7 +13144,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
@@ -13173,7 +13168,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>38</v>
       </c>
@@ -13197,7 +13192,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -13211,7 +13206,7 @@
       <c r="K42" s="12"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -13227,7 +13222,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -13242,7 +13237,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -13266,22 +13261,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -13310,7 +13305,7 @@
       <c r="L2" s="10"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -13326,7 +13321,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -13343,7 +13338,7 @@
       <c r="L4" s="10"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -13373,7 +13368,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -13393,7 +13388,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -13413,7 +13408,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -13433,7 +13428,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -13453,7 +13448,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -13473,7 +13468,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -13493,7 +13488,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -13515,7 +13510,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -13535,7 +13530,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -13555,7 +13550,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -13575,7 +13570,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -13595,7 +13590,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -13615,7 +13610,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
@@ -13635,7 +13630,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
@@ -13655,7 +13650,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -13675,7 +13670,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -13689,7 +13684,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -13705,7 +13700,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
@@ -13725,7 +13720,7 @@
       <c r="O23" s="12"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -13770,7 +13765,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -14020,7 +14015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>9</v>
       </c>
@@ -14040,7 +14035,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
@@ -14062,7 +14057,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -14084,7 +14079,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -14108,7 +14103,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>37</v>
       </c>
@@ -14134,7 +14129,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -14158,7 +14153,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -14182,7 +14177,7 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
@@ -14206,7 +14201,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -14233,19 +14228,19 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -14275,7 +14270,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -14292,7 +14287,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="18" t="s">
         <v>1</v>
@@ -14310,7 +14305,7 @@
       <c r="M7" s="10"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
@@ -14341,7 +14336,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>2</v>
@@ -14362,7 +14357,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -14383,7 +14378,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
@@ -14404,7 +14399,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>5</v>
@@ -14425,7 +14420,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -14446,7 +14441,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>7</v>
@@ -14467,7 +14462,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
@@ -14490,7 +14485,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
@@ -14511,7 +14506,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>10</v>
@@ -14532,7 +14527,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -14553,7 +14548,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -14574,7 +14569,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>37</v>
@@ -14595,7 +14590,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
@@ -14616,7 +14611,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -14637,7 +14632,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="20" t="s">
         <v>38</v>
@@ -14658,7 +14653,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -14673,7 +14668,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="6" t="s">
         <v>36</v>
@@ -14690,7 +14685,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="18" t="s">
         <v>1</v>
@@ -14710,7 +14705,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>0</v>
@@ -14755,7 +14750,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>2</v>
@@ -14858,7 +14853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>5</v>
@@ -14895,7 +14890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>6</v>
@@ -14932,7 +14927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>7</v>
@@ -14965,7 +14960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>8</v>
@@ -14998,7 +14993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
@@ -15021,7 +15016,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>10</v>
@@ -15044,7 +15039,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>11</v>
@@ -15067,7 +15062,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -15090,7 +15085,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>37</v>
@@ -15113,7 +15108,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>40</v>
@@ -15136,7 +15131,7 @@
       </c>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="19" t="s">
         <v>39</v>
@@ -15159,7 +15154,7 @@
       </c>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="20" t="s">
         <v>38</v>
@@ -15182,7 +15177,7 @@
       </c>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="17"/>
       <c r="C43" s="12"/>
@@ -15206,23 +15201,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:S43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -15252,7 +15247,7 @@
       <c r="O5" s="10"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -15269,7 +15264,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
@@ -15287,7 +15282,7 @@
       <c r="O7" s="10"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
         <v>0</v>
@@ -15318,7 +15313,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>2</v>
@@ -15339,7 +15334,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
         <v>3</v>
@@ -15360,7 +15355,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
         <v>4</v>
@@ -15381,7 +15376,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="s">
@@ -15403,7 +15398,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -15424,7 +15419,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -15445,7 +15440,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -15468,7 +15463,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -15489,7 +15484,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17" s="10"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -15510,7 +15505,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
         <v>11</v>
@@ -15531,7 +15526,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="10"/>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -15552,7 +15547,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="10"/>
       <c r="D20" s="19" t="s">
         <v>37</v>
@@ -15573,7 +15568,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21" s="10"/>
       <c r="D21" s="19" t="s">
         <v>40</v>
@@ -15594,7 +15589,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
       <c r="D22" s="19" t="s">
         <v>39</v>
@@ -15615,7 +15610,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23" s="20" t="s">
         <v>38</v>
@@ -15636,7 +15631,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -15651,7 +15646,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="6" t="s">
         <v>36</v>
@@ -15668,7 +15663,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="3:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
       <c r="D26" s="18" t="s">
         <v>1</v>
@@ -15688,7 +15683,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="3:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19" ht="45" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
       <c r="D27" s="7" t="s">
         <v>0</v>
@@ -15733,7 +15728,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
       <c r="D28" s="7" t="s">
         <v>2</v>
@@ -15762,7 +15757,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="7" t="s">
         <v>3</v>
@@ -15799,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="7" t="s">
         <v>4</v>
@@ -15836,7 +15831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="7" t="s">
         <v>5</v>
@@ -15873,7 +15868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
       <c r="D32" s="7" t="s">
         <v>6</v>
@@ -15910,7 +15905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="10"/>
       <c r="D33" s="7" t="s">
         <v>7</v>
@@ -15943,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="10"/>
       <c r="D34" s="7" t="s">
         <v>8</v>
@@ -15976,7 +15971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -15999,7 +15994,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
         <v>10</v>
@@ -16022,7 +16017,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
       <c r="D37" s="7" t="s">
         <v>11</v>
@@ -16045,7 +16040,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
       <c r="D38" s="7" t="s">
         <v>15</v>
@@ -16068,7 +16063,7 @@
       </c>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
       <c r="D39" s="19" t="s">
         <v>37</v>
@@ -16091,7 +16086,7 @@
       </c>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
       <c r="D40" s="19" t="s">
         <v>40</v>
@@ -16114,7 +16109,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="19" t="s">
         <v>39</v>
@@ -16137,7 +16132,7 @@
       </c>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
       <c r="D42" s="20" t="s">
         <v>38</v>
@@ -16160,7 +16155,7 @@
       </c>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="10"/>
       <c r="D43" s="17"/>
       <c r="E43" s="12"/>
@@ -16177,6 +16172,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16188,18 +16184,18 @@
       <selection activeCell="Q41" sqref="A2:Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -16229,7 +16225,7 @@
       <c r="M3" s="10"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>35</v>
@@ -16246,7 +16242,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="18" t="s">
         <v>1</v>
@@ -16268,7 +16264,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
         <v>0</v>
@@ -16299,7 +16295,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
@@ -16320,7 +16316,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -16341,7 +16337,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -16362,7 +16358,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>5</v>
@@ -16383,7 +16379,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -16404,7 +16400,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>7</v>
@@ -16425,7 +16421,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -16448,7 +16444,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
@@ -16469,7 +16465,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>10</v>
@@ -16490,7 +16486,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
@@ -16511,7 +16507,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -16532,7 +16528,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -16553,7 +16549,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>40</v>
@@ -16574,7 +16570,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>39</v>
@@ -16595,7 +16591,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="20" t="s">
         <v>38</v>
@@ -16616,7 +16612,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -16631,7 +16627,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>36</v>
@@ -16648,7 +16644,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="18" t="s">
         <v>1</v>
@@ -16668,7 +16664,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>0</v>
@@ -16713,7 +16709,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>2</v>
@@ -16742,7 +16738,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
@@ -16779,7 +16775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>4</v>
@@ -16816,7 +16812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>5</v>
@@ -16853,7 +16849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>6</v>
@@ -16890,7 +16886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>7</v>
@@ -16923,7 +16919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -16956,7 +16952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>9</v>
@@ -16979,7 +16975,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>10</v>
@@ -17002,7 +16998,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>11</v>
@@ -17025,7 +17021,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -17048,7 +17044,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="19" t="s">
         <v>37</v>
@@ -17071,7 +17067,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>40</v>
@@ -17094,7 +17090,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>39</v>
@@ -17117,7 +17113,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="20" t="s">
         <v>38</v>
@@ -17140,7 +17136,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="17"/>
       <c r="C41" s="12"/>
@@ -17168,18 +17164,18 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -17209,7 +17205,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -17226,7 +17222,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -17248,7 +17244,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -17279,7 +17275,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -17300,7 +17296,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -17321,7 +17317,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -17342,7 +17338,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -17363,7 +17359,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -17384,7 +17380,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -17405,7 +17401,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -17428,7 +17424,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -17449,7 +17445,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -17470,7 +17466,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -17491,7 +17487,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -17512,7 +17508,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -17533,7 +17529,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -17554,7 +17550,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -17575,7 +17571,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -17596,7 +17592,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -17611,7 +17607,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -17628,7 +17624,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -17652,7 +17648,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -17697,7 +17693,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -17940,7 +17936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -17963,7 +17959,7 @@
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -17986,7 +17982,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -18009,7 +18005,7 @@
       </c>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -18032,7 +18028,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -18055,7 +18051,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -18078,7 +18074,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -18101,7 +18097,7 @@
       </c>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -18124,7 +18120,7 @@
       </c>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -18152,18 +18148,18 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -18193,7 +18189,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -18210,7 +18206,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -18232,7 +18228,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -18261,7 +18257,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -18282,7 +18278,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -18303,7 +18299,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -18324,7 +18320,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -18345,7 +18341,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -18366,7 +18362,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -18387,7 +18383,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -18410,7 +18406,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -18431,7 +18427,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -18452,7 +18448,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -18473,7 +18469,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -18494,7 +18490,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -18515,7 +18511,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -18536,7 +18532,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -18557,7 +18553,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -18578,7 +18574,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18593,7 +18589,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -18610,7 +18606,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -18636,7 +18632,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -18679,7 +18675,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -18950,7 +18946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -18977,7 +18973,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -19004,7 +19000,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -19031,7 +19027,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -19058,7 +19054,7 @@
       </c>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -19085,7 +19081,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -19112,7 +19108,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -19139,7 +19135,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -19166,7 +19162,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>

--- a/Testning/För Testaren.xlsx
+++ b/Testning/För Testaren.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="8190" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="8190" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Michael Nilsson SLAGLJUD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Tommy Andersson SLAGLJUD" sheetId="18" r:id="rId17"/>
     <sheet name="Tommy Andersson HÖGTALARE" sheetId="19" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -518,8 +518,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -930,7 +930,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1124,21 +1124,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
@@ -1159,7 +1159,7 @@
     <col min="21" max="21" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" ht="34.5" thickBot="1">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:15" ht="33.75">
       <c r="A2" s="22" t="s">
         <v>41</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="O19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="O20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1579,7 +1579,7 @@
       <c r="L21" s="10"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="45.75" thickBot="1">
       <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="45">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="18.75">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="18.75">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="18.75">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="18.75">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="18.75">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="19.5" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="7" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="19" t="s">
         <v>37</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2151,7 +2151,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2169,7 +2169,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2184,7 +2184,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2206,14 +2206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="D7:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -2226,7 +2226,7 @@
     <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:16" ht="33.75">
       <c r="B4" s="10"/>
       <c r="C4" s="22" t="s">
         <v>44</v>
@@ -2256,7 +2256,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -2273,7 +2273,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="75">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -2295,7 +2295,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -2324,7 +2324,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2345,7 +2345,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -2366,7 +2366,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -2387,7 +2387,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -2408,7 +2408,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -2429,7 +2429,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -2450,7 +2450,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -2473,7 +2473,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -2494,7 +2494,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -2515,7 +2515,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -2536,7 +2536,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -2557,7 +2557,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -2578,7 +2578,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -2599,7 +2599,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -2620,7 +2620,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -2641,7 +2641,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2656,7 +2656,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -2673,7 +2673,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -2697,7 +2697,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="45">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -2740,7 +2740,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -2773,17 +2773,17 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="18.75">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="7" t="s">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="18.75">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -2855,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>7</v>
@@ -2974,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" ht="19.5" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -3011,21 +3011,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>123</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -3248,14 +3248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -3267,7 +3267,7 @@
     <col min="17" max="17" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.5" thickBot="1">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:15" ht="33.75">
       <c r="A4" s="10"/>
       <c r="B4" s="22" t="s">
         <v>41</v>
@@ -3297,7 +3297,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -3314,7 +3314,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="75">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -3336,7 +3336,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -3365,7 +3365,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -3386,7 +3386,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -3407,7 +3407,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -3428,7 +3428,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -3449,7 +3449,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -3470,7 +3470,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -3491,7 +3491,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -3514,7 +3514,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -3535,7 +3535,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -3556,7 +3556,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -3577,7 +3577,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -3598,7 +3598,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -3619,7 +3619,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -3640,7 +3640,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -3661,7 +3661,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -3682,7 +3682,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3697,7 +3697,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -3714,7 +3714,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="75.75" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -3738,7 +3738,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -3781,7 +3781,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -3814,7 +3814,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>4</v>
@@ -3890,7 +3890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -3929,7 +3929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -3970,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -4044,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -4200,7 +4200,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -4225,7 +4225,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="10"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -4248,7 +4248,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -4269,14 +4269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -4287,7 +4287,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.5" thickBot="1">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:15" ht="33.75">
       <c r="A4" s="10"/>
       <c r="B4" s="22" t="s">
         <v>44</v>
@@ -4317,7 +4317,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -4334,7 +4334,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="75">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -4356,7 +4356,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -4385,7 +4385,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -4406,7 +4406,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -4427,7 +4427,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -4448,7 +4448,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -4469,7 +4469,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -4490,7 +4490,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -4511,7 +4511,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -4534,7 +4534,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -4555,7 +4555,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -4576,7 +4576,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -4597,7 +4597,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -4618,7 +4618,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -4639,7 +4639,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -4660,7 +4660,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -4681,7 +4681,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -4702,7 +4702,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4717,7 +4717,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -4734,7 +4734,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="75.75" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -4758,7 +4758,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -4801,7 +4801,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -4832,7 +4832,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>4</v>
@@ -4910,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -4988,7 +4988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -5064,21 +5064,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="30" t="s">
-        <v>79</v>
-      </c>
+      <c r="G34" s="30"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>156</v>
@@ -5087,7 +5087,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -5110,7 +5110,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -5135,7 +5135,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -5158,7 +5158,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -5183,7 +5183,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -5206,7 +5206,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -5229,7 +5229,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="10"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -5252,7 +5252,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -5273,14 +5273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R42"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -5291,7 +5291,7 @@
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:16" ht="33.75">
       <c r="B4" s="10"/>
       <c r="C4" s="22" t="s">
         <v>41</v>
@@ -5321,7 +5321,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -5338,7 +5338,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="75">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -5360,7 +5360,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -5412,7 +5412,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -5433,7 +5433,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -5454,7 +5454,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -5475,7 +5475,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -5496,7 +5496,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -5517,7 +5517,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -5540,7 +5540,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -5561,7 +5561,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -5582,7 +5582,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -5603,7 +5603,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -5624,7 +5624,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -5645,7 +5645,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -5666,7 +5666,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -5687,7 +5687,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -5708,7 +5708,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5723,7 +5723,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -5740,7 +5740,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -5764,7 +5764,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="45">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -5809,7 +5809,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -5838,7 +5838,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="18.75">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>3</v>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="18.75">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -5912,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -5949,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -5986,7 +5986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>7</v>
@@ -6019,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" ht="19.5" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -6052,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -6144,7 +6144,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -6257,14 +6257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D27" sqref="D27:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -6275,7 +6275,7 @@
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:16" ht="33.75">
       <c r="B4" s="10"/>
       <c r="C4" s="22" t="s">
         <v>44</v>
@@ -6305,7 +6305,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -6322,7 +6322,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="75">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -6344,7 +6344,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -6375,7 +6375,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -6396,7 +6396,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -6417,7 +6417,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -6438,7 +6438,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -6459,7 +6459,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -6480,7 +6480,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -6501,7 +6501,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -6524,7 +6524,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -6545,7 +6545,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -6566,7 +6566,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -6587,7 +6587,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -6608,7 +6608,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -6629,7 +6629,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -6650,7 +6650,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -6671,7 +6671,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -6692,7 +6692,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6707,7 +6707,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -6724,7 +6724,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -6748,7 +6748,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="45">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -6793,7 +6793,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -6822,7 +6822,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="18.75">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>3</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="18.75">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -6896,7 +6896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -6933,21 +6933,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="30"/>
@@ -6970,17 +6970,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7" t="s">
@@ -7003,7 +7003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" ht="19.5" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -7036,7 +7036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -7082,7 +7082,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -7128,7 +7128,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -7151,7 +7151,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -7174,7 +7174,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -7197,7 +7197,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -7220,7 +7220,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -7241,14 +7241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:R44"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -7261,7 +7261,7 @@
     <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:16" ht="34.5" thickBot="1">
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:16" ht="33.75">
       <c r="B6" s="10"/>
       <c r="C6" s="22" t="s">
         <v>41</v>
@@ -7291,7 +7291,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16">
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
         <v>35</v>
@@ -7308,7 +7308,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="75">
       <c r="B8" s="10"/>
       <c r="C8" s="18" t="s">
         <v>1</v>
@@ -7330,7 +7330,7 @@
       <c r="N8" s="10"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>0</v>
@@ -7361,7 +7361,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -7382,7 +7382,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>3</v>
@@ -7403,7 +7403,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>4</v>
@@ -7424,7 +7424,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>5</v>
@@ -7445,7 +7445,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -7466,7 +7466,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -7487,7 +7487,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -7510,7 +7510,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>9</v>
@@ -7531,7 +7531,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -7552,7 +7552,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>11</v>
@@ -7573,7 +7573,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -7594,7 +7594,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>37</v>
@@ -7615,7 +7615,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="19" t="s">
         <v>40</v>
@@ -7636,7 +7636,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="19" t="s">
         <v>39</v>
@@ -7657,7 +7657,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="20" t="s">
         <v>38</v>
@@ -7678,7 +7678,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="B25" s="10"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -7693,7 +7693,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18">
       <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -7710,7 +7710,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" ht="75.75" thickBot="1">
       <c r="B27" s="10"/>
       <c r="C27" s="18" t="s">
         <v>1</v>
@@ -7742,7 +7742,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" ht="45">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>0</v>
@@ -7787,7 +7787,7 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -7816,7 +7816,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>3</v>
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -7890,7 +7890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>5</v>
@@ -7927,7 +7927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" ht="18.75">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>6</v>
@@ -7964,7 +7964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" ht="18.75">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>7</v>
@@ -7999,7 +7999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:18" ht="19.5" thickBot="1">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>8</v>
@@ -8030,7 +8030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>10</v>
@@ -8076,7 +8076,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="7" t="s">
         <v>11</v>
@@ -8099,7 +8099,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="7" t="s">
         <v>15</v>
@@ -8122,7 +8122,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>37</v>
@@ -8145,7 +8145,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="19" t="s">
         <v>40</v>
@@ -8168,7 +8168,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18">
       <c r="B42" s="10"/>
       <c r="C42" s="19" t="s">
         <v>39</v>
@@ -8191,7 +8191,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18">
       <c r="B43" s="10"/>
       <c r="C43" s="20" t="s">
         <v>38</v>
@@ -8214,7 +8214,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" ht="15.75" thickBot="1">
       <c r="B44" s="10"/>
       <c r="C44" s="17"/>
       <c r="D44" s="12"/>
@@ -8235,14 +8235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -8255,7 +8255,7 @@
     <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:16" ht="33.75">
       <c r="B4" s="10"/>
       <c r="C4" s="22" t="s">
         <v>44</v>
@@ -8285,7 +8285,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -8302,7 +8302,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="75">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -8324,7 +8324,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -8355,7 +8355,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -8376,7 +8376,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -8397,7 +8397,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -8418,7 +8418,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -8439,7 +8439,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -8460,7 +8460,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -8481,7 +8481,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -8504,7 +8504,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -8525,7 +8525,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -8546,7 +8546,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -8567,7 +8567,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -8588,7 +8588,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -8609,7 +8609,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -8630,7 +8630,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -8651,7 +8651,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -8672,7 +8672,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -8687,7 +8687,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -8704,7 +8704,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -8736,7 +8736,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="45">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -8781,7 +8781,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -8808,7 +8808,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="18.75">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>3</v>
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="18.75">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -8880,7 +8880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -8917,7 +8917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -8954,7 +8954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>7</v>
@@ -8987,7 +8987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" ht="19.5" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -9020,7 +9020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -9066,7 +9066,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -9089,7 +9089,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -9112,7 +9112,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -9135,7 +9135,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -9158,7 +9158,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -9181,7 +9181,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -9204,7 +9204,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
@@ -9225,14 +9225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:S43"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -9244,7 +9244,7 @@
     <col min="19" max="19" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="3:17" ht="34.5" thickBot="1">
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="3:17" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="3:17" ht="33.75">
       <c r="C5" s="10"/>
       <c r="D5" s="22" t="s">
         <v>41</v>
@@ -9274,7 +9274,7 @@
       <c r="O5" s="10"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17">
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -9291,7 +9291,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="3:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" ht="75">
       <c r="C7" s="10"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
@@ -9313,7 +9313,7 @@
       <c r="O7" s="10"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17">
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
         <v>0</v>
@@ -9344,7 +9344,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17">
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>2</v>
@@ -9365,7 +9365,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17">
       <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
         <v>3</v>
@@ -9386,7 +9386,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17">
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
         <v>4</v>
@@ -9407,7 +9407,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17">
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="s">
         <v>5</v>
@@ -9428,7 +9428,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17">
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -9449,7 +9449,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17">
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -9470,7 +9470,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17">
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -9493,7 +9493,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17">
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -9514,7 +9514,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19">
       <c r="C17" s="10"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -9535,7 +9535,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19">
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
         <v>11</v>
@@ -9556,7 +9556,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19">
       <c r="C19" s="10"/>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -9577,7 +9577,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19">
       <c r="C20" s="10"/>
       <c r="D20" s="19" t="s">
         <v>37</v>
@@ -9598,7 +9598,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19">
       <c r="C21" s="10"/>
       <c r="D21" s="19" t="s">
         <v>40</v>
@@ -9619,7 +9619,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19">
       <c r="C22" s="10"/>
       <c r="D22" s="19" t="s">
         <v>39</v>
@@ -9640,7 +9640,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19">
       <c r="C23" s="10"/>
       <c r="D23" s="20" t="s">
         <v>38</v>
@@ -9661,7 +9661,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19">
       <c r="C24" s="10"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -9676,7 +9676,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19">
       <c r="C25" s="10"/>
       <c r="D25" s="6" t="s">
         <v>36</v>
@@ -9693,7 +9693,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="3:19" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" ht="75.75" thickBot="1">
       <c r="C26" s="10"/>
       <c r="D26" s="18" t="s">
         <v>1</v>
@@ -9725,7 +9725,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="3:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" ht="45">
       <c r="C27" s="10"/>
       <c r="D27" s="7" t="s">
         <v>0</v>
@@ -9770,7 +9770,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19">
       <c r="C28" s="10"/>
       <c r="D28" s="7" t="s">
         <v>2</v>
@@ -9799,7 +9799,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:19" ht="18.75">
       <c r="C29" s="10"/>
       <c r="D29" s="7" t="s">
         <v>3</v>
@@ -9836,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:19" ht="18.75">
       <c r="C30" s="10"/>
       <c r="D30" s="7" t="s">
         <v>4</v>
@@ -9873,7 +9873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:19" ht="18.75">
       <c r="C31" s="10"/>
       <c r="D31" s="7" t="s">
         <v>5</v>
@@ -9910,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:19" ht="18.75">
       <c r="C32" s="10"/>
       <c r="D32" s="7" t="s">
         <v>6</v>
@@ -9947,7 +9947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:19" ht="18.75">
       <c r="C33" s="10"/>
       <c r="D33" s="7" t="s">
         <v>7</v>
@@ -9980,7 +9980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:19" ht="19.5" thickBot="1">
       <c r="C34" s="10"/>
       <c r="D34" s="7" t="s">
         <v>8</v>
@@ -10013,7 +10013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:19">
       <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -10036,7 +10036,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:19">
       <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
         <v>10</v>
@@ -10059,7 +10059,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:19">
       <c r="C37" s="10"/>
       <c r="D37" s="7" t="s">
         <v>11</v>
@@ -10082,7 +10082,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:19">
       <c r="C38" s="10"/>
       <c r="D38" s="7" t="s">
         <v>15</v>
@@ -10105,7 +10105,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19">
       <c r="C39" s="10"/>
       <c r="D39" s="19" t="s">
         <v>37</v>
@@ -10128,7 +10128,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19">
       <c r="C40" s="10"/>
       <c r="D40" s="19" t="s">
         <v>40</v>
@@ -10151,7 +10151,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19">
       <c r="C41" s="10"/>
       <c r="D41" s="19" t="s">
         <v>39</v>
@@ -10174,7 +10174,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19">
       <c r="C42" s="10"/>
       <c r="D42" s="20" t="s">
         <v>38</v>
@@ -10197,7 +10197,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:19" ht="15.75" thickBot="1">
       <c r="C43" s="10"/>
       <c r="D43" s="17"/>
       <c r="E43" s="12"/>
@@ -10218,14 +10218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H42" sqref="D28:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -10237,7 +10237,7 @@
     <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:16" ht="34.5" thickBot="1">
       <c r="C4" t="s">
         <v>43</v>
       </c>
@@ -10249,7 +10249,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:16" ht="33.75">
       <c r="B5" s="10"/>
       <c r="C5" s="22" t="s">
         <v>44</v>
@@ -10267,7 +10267,7 @@
       <c r="N5" s="10"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16">
       <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
         <v>35</v>
@@ -10284,7 +10284,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="75">
       <c r="B7" s="10"/>
       <c r="C7" s="18" t="s">
         <v>1</v>
@@ -10306,7 +10306,7 @@
       <c r="N7" s="10"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>0</v>
@@ -10337,7 +10337,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -10358,7 +10358,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>3</v>
@@ -10379,7 +10379,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -10400,7 +10400,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -10421,7 +10421,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -10442,7 +10442,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -10463,7 +10463,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -10486,7 +10486,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>9</v>
@@ -10507,7 +10507,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>10</v>
@@ -10528,7 +10528,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>11</v>
@@ -10549,7 +10549,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>15</v>
@@ -10570,7 +10570,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>37</v>
@@ -10591,7 +10591,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>40</v>
@@ -10612,7 +10612,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="19" t="s">
         <v>39</v>
@@ -10633,7 +10633,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="20" t="s">
         <v>38</v>
@@ -10654,7 +10654,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -10669,7 +10669,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18">
       <c r="B25" s="10"/>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -10686,7 +10686,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="75.75" thickBot="1">
       <c r="B26" s="10"/>
       <c r="C26" s="18" t="s">
         <v>1</v>
@@ -10718,7 +10718,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="45">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>0</v>
@@ -10763,7 +10763,7 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -10792,7 +10792,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="18.75">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>3</v>
@@ -10829,17 +10829,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7" t="s">
@@ -10866,7 +10866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>5</v>
@@ -10903,7 +10903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>6</v>
@@ -10940,7 +10940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="18.75">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>7</v>
@@ -10973,7 +10973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" ht="19.5" thickBot="1">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>8</v>
@@ -11006,21 +11006,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="30">
@@ -11029,7 +11029,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>10</v>
@@ -11052,7 +11052,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>11</v>
@@ -11075,7 +11075,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="7" t="s">
         <v>15</v>
@@ -11098,18 +11098,18 @@
       <c r="M38" s="7"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="7" t="s">
         <v>50</v>
@@ -11121,7 +11121,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>40</v>
@@ -11144,7 +11144,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="19" t="s">
         <v>39</v>
@@ -11167,7 +11167,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18">
       <c r="B42" s="10"/>
       <c r="C42" s="20" t="s">
         <v>38</v>
@@ -11190,7 +11190,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="15.75" thickBot="1">
       <c r="B43" s="10"/>
       <c r="C43" s="17"/>
       <c r="D43" s="12"/>
@@ -11211,14 +11211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
@@ -11231,7 +11231,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.5" thickBot="1">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>43</v>
@@ -11244,7 +11244,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:15" ht="33.75">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
         <v>44</v>
@@ -11262,7 +11262,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -11279,7 +11279,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45">
       <c r="A6" s="21"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -11291,7 +11291,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -11299,7 +11299,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -11328,28 +11328,28 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -11370,7 +11370,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -11391,7 +11391,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -11412,7 +11412,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -11433,7 +11433,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -11454,7 +11454,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -11477,7 +11477,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -11498,7 +11498,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="21"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -11519,7 +11519,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="21"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -11540,7 +11540,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="21"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -11561,7 +11561,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="21"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -11582,7 +11582,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="21"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -11603,7 +11603,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="21"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -11624,7 +11624,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="21"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -11645,7 +11645,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="21"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -11660,7 +11660,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="21"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -11677,7 +11677,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="45.75" thickBot="1">
       <c r="A25" s="21"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -11699,7 +11699,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="45">
       <c r="A26" s="21"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -11745,7 +11745,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="21"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -11778,7 +11778,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="18.75">
       <c r="A28" s="21"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -11819,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="18.75">
       <c r="A29" s="21"/>
       <c r="B29" s="7" t="s">
         <v>4</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="18.75">
       <c r="A30" s="21"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -11901,7 +11901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="18.75">
       <c r="A31" s="21"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -11942,7 +11942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="18.75">
       <c r="A32" s="21"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -11979,7 +11979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1">
       <c r="A33" s="21"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -12016,7 +12016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="21"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="21"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="21"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="21"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="21"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="21"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="21"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="21"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
       <c r="A42" s="21"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -12253,14 +12253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -12272,7 +12272,7 @@
     <col min="15" max="15" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="34.5" thickBot="1">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:15" ht="33.75">
       <c r="A4" s="22" t="s">
         <v>41</v>
       </c>
@@ -12308,7 +12308,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -12324,7 +12324,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="75">
       <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
@@ -12340,7 +12340,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -12390,7 +12390,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -12410,7 +12410,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -12450,7 +12450,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -12470,7 +12470,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -12510,7 +12510,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -12530,7 +12530,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -12590,7 +12590,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="19" t="s">
         <v>37</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
@@ -12631,7 +12631,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -12652,7 +12652,7 @@
       <c r="L21" s="10"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
@@ -12675,7 +12675,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -12689,7 +12689,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="75.75" thickBot="1">
       <c r="A25" s="18" t="s">
         <v>1</v>
       </c>
@@ -12727,7 +12727,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="45">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -12771,7 +12771,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -12799,7 +12799,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="18.75">
       <c r="A28" s="7" t="s">
         <v>3</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="18.75">
       <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="18.75">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="18.75">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="18.75">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>8</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="7" t="s">
         <v>9</v>
       </c>
@@ -13032,7 +13032,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -13054,7 +13054,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="7" t="s">
         <v>15</v>
       </c>
@@ -13098,7 +13098,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="19" t="s">
         <v>40</v>
       </c>
@@ -13144,7 +13144,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="20" t="s">
         <v>38</v>
       </c>
@@ -13192,7 +13192,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -13206,7 +13206,7 @@
       <c r="K42" s="12"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -13222,7 +13222,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -13237,7 +13237,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -13258,14 +13258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
@@ -13276,7 +13276,7 @@
     <col min="15" max="15" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="34.5" thickBot="1">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:14" ht="33.75">
       <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
@@ -13305,7 +13305,7 @@
       <c r="L2" s="10"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -13321,7 +13321,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="75">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -13338,7 +13338,7 @@
       <c r="L4" s="10"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -13368,7 +13368,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -13388,7 +13388,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -13428,7 +13428,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -13448,7 +13448,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -13510,7 +13510,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -13530,7 +13530,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -13550,7 +13550,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -13570,7 +13570,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
@@ -13610,7 +13610,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
@@ -13630,7 +13630,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
@@ -13650,7 +13650,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -13670,7 +13670,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -13684,7 +13684,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="75.75" thickBot="1">
       <c r="A23" s="18" t="s">
         <v>1</v>
       </c>
@@ -13720,7 +13720,7 @@
       <c r="O23" s="12"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="30">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -13765,7 +13765,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
@@ -13979,16 +13979,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="19.5" thickBot="1">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
@@ -14015,7 +14015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="7" t="s">
         <v>9</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
@@ -14057,7 +14057,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
@@ -14079,7 +14079,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="19" t="s">
         <v>37</v>
       </c>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="20" t="s">
         <v>38</v>
       </c>
@@ -14201,7 +14201,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1">
       <c r="A40" s="17"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -14221,14 +14221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -14240,7 +14240,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" ht="34.5" thickBot="1">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:15" ht="33.75">
       <c r="A5" s="10"/>
       <c r="B5" s="22" t="s">
         <v>41</v>
@@ -14270,7 +14270,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -14287,7 +14287,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45">
       <c r="A7" s="10"/>
       <c r="B7" s="18" t="s">
         <v>1</v>
@@ -14305,7 +14305,7 @@
       <c r="M7" s="10"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
@@ -14336,7 +14336,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>2</v>
@@ -14357,7 +14357,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -14378,7 +14378,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>4</v>
@@ -14399,7 +14399,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>5</v>
@@ -14420,7 +14420,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -14441,7 +14441,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>7</v>
@@ -14462,7 +14462,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>8</v>
@@ -14485,7 +14485,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
@@ -14506,7 +14506,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>10</v>
@@ -14527,7 +14527,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>11</v>
@@ -14548,7 +14548,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="10"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -14569,7 +14569,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>37</v>
@@ -14590,7 +14590,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
@@ -14611,7 +14611,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="10"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -14632,7 +14632,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="10"/>
       <c r="B23" s="20" t="s">
         <v>38</v>
@@ -14653,7 +14653,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="10"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -14668,7 +14668,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="10"/>
       <c r="B25" s="6" t="s">
         <v>36</v>
@@ -14685,7 +14685,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="45.75" thickBot="1">
       <c r="A26" s="10"/>
       <c r="B26" s="18" t="s">
         <v>1</v>
@@ -14705,7 +14705,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="45">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>0</v>
@@ -14750,7 +14750,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>2</v>
@@ -14779,7 +14779,7 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>3</v>
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>4</v>
@@ -14853,7 +14853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>5</v>
@@ -14890,7 +14890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>6</v>
@@ -14927,7 +14927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>7</v>
@@ -14960,7 +14960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="19.5" thickBot="1">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>8</v>
@@ -14993,7 +14993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
@@ -15016,7 +15016,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>10</v>
@@ -15039,7 +15039,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>11</v>
@@ -15062,7 +15062,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
         <v>15</v>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>37</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>40</v>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="10"/>
       <c r="B41" s="19" t="s">
         <v>39</v>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="10"/>
       <c r="B42" s="20" t="s">
         <v>38</v>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1">
       <c r="A43" s="10"/>
       <c r="B43" s="17"/>
       <c r="C43" s="12"/>
@@ -15198,14 +15198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -15217,7 +15217,7 @@
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:17" ht="34.5" thickBot="1">
       <c r="D4" t="s">
         <v>43</v>
       </c>
@@ -15229,7 +15229,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="2:17" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:17" ht="33.75">
       <c r="C5" s="10"/>
       <c r="D5" s="22" t="s">
         <v>44</v>
@@ -15247,7 +15247,7 @@
       <c r="O5" s="10"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17">
       <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -15264,7 +15264,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="45">
       <c r="C7" s="10"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
@@ -15282,7 +15282,7 @@
       <c r="O7" s="10"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17">
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
         <v>0</v>
@@ -15313,7 +15313,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17">
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>2</v>
@@ -15334,7 +15334,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17">
       <c r="C10" s="10"/>
       <c r="D10" s="7" t="s">
         <v>3</v>
@@ -15355,7 +15355,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17">
       <c r="C11" s="10"/>
       <c r="D11" s="7" t="s">
         <v>4</v>
@@ -15376,7 +15376,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17">
       <c r="B12" s="6"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7" t="s">
@@ -15398,7 +15398,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17">
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -15419,7 +15419,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17">
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -15440,7 +15440,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17">
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -15463,7 +15463,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17">
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -15484,7 +15484,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19">
       <c r="C17" s="10"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
@@ -15505,7 +15505,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19">
       <c r="C18" s="10"/>
       <c r="D18" s="7" t="s">
         <v>11</v>
@@ -15526,7 +15526,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19">
       <c r="C19" s="10"/>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -15547,7 +15547,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19">
       <c r="C20" s="10"/>
       <c r="D20" s="19" t="s">
         <v>37</v>
@@ -15568,7 +15568,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19">
       <c r="C21" s="10"/>
       <c r="D21" s="19" t="s">
         <v>40</v>
@@ -15589,7 +15589,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19">
       <c r="C22" s="10"/>
       <c r="D22" s="19" t="s">
         <v>39</v>
@@ -15610,7 +15610,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19">
       <c r="C23" s="10"/>
       <c r="D23" s="20" t="s">
         <v>38</v>
@@ -15631,7 +15631,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19">
       <c r="C24" s="10"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -15646,7 +15646,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="3:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19">
       <c r="C25" s="10"/>
       <c r="D25" s="6" t="s">
         <v>36</v>
@@ -15663,7 +15663,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="3:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19" ht="45.75" thickBot="1">
       <c r="C26" s="10"/>
       <c r="D26" s="18" t="s">
         <v>1</v>
@@ -15683,7 +15683,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="3:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" ht="45">
       <c r="C27" s="10"/>
       <c r="D27" s="7" t="s">
         <v>0</v>
@@ -15728,17 +15728,17 @@
       <c r="R27" s="14"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19">
       <c r="C28" s="10"/>
       <c r="D28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
@@ -15757,16 +15757,16 @@
       <c r="R28" s="6"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19" ht="18.75">
       <c r="C29" s="10"/>
       <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -15794,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:19" ht="18.75">
       <c r="C30" s="10"/>
       <c r="D30" s="7" t="s">
         <v>4</v>
@@ -15831,18 +15831,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:19" ht="18.75">
       <c r="C31" s="10"/>
       <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="7" t="s">
         <v>51</v>
@@ -15868,7 +15868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:19" ht="18.75">
       <c r="C32" s="10"/>
       <c r="D32" s="7" t="s">
         <v>6</v>
@@ -15905,7 +15905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:19" ht="18.75">
       <c r="C33" s="10"/>
       <c r="D33" s="7" t="s">
         <v>7</v>
@@ -15938,7 +15938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:19" ht="19.5" thickBot="1">
       <c r="C34" s="10"/>
       <c r="D34" s="7" t="s">
         <v>8</v>
@@ -15971,7 +15971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:19">
       <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -15994,7 +15994,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19">
       <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
         <v>10</v>
@@ -16017,7 +16017,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19">
       <c r="C37" s="10"/>
       <c r="D37" s="7" t="s">
         <v>11</v>
@@ -16040,7 +16040,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19">
       <c r="C38" s="10"/>
       <c r="D38" s="7" t="s">
         <v>15</v>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19">
       <c r="C39" s="10"/>
       <c r="D39" s="19" t="s">
         <v>37</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19">
       <c r="C40" s="10"/>
       <c r="D40" s="19" t="s">
         <v>40</v>
@@ -16109,7 +16109,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19">
       <c r="C41" s="10"/>
       <c r="D41" s="19" t="s">
         <v>39</v>
@@ -16132,17 +16132,17 @@
       </c>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19">
       <c r="C42" s="10"/>
       <c r="D42" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="2" t="s">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:19" ht="15.75" thickBot="1">
       <c r="C43" s="10"/>
       <c r="D43" s="17"/>
       <c r="E43" s="12"/>
@@ -16177,14 +16177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q41" sqref="A2:Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -16195,7 +16195,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" ht="34.5" thickBot="1">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -16207,7 +16207,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:15" ht="33.75">
       <c r="A3" s="10"/>
       <c r="B3" s="22" t="s">
         <v>41</v>
@@ -16225,7 +16225,7 @@
       <c r="M3" s="10"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>35</v>
@@ -16242,7 +16242,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="75">
       <c r="A5" s="10"/>
       <c r="B5" s="18" t="s">
         <v>1</v>
@@ -16264,7 +16264,7 @@
       <c r="M5" s="10"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
         <v>0</v>
@@ -16295,7 +16295,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
@@ -16316,7 +16316,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -16337,7 +16337,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -16358,7 +16358,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>5</v>
@@ -16379,7 +16379,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -16400,7 +16400,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>7</v>
@@ -16421,7 +16421,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -16444,7 +16444,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
@@ -16465,7 +16465,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>10</v>
@@ -16486,7 +16486,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
@@ -16507,7 +16507,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -16528,7 +16528,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="10"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -16549,7 +16549,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>40</v>
@@ -16570,7 +16570,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>39</v>
@@ -16591,7 +16591,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="10"/>
       <c r="B21" s="20" t="s">
         <v>38</v>
@@ -16612,7 +16612,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="10"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -16627,7 +16627,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>36</v>
@@ -16644,7 +16644,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="75.75" thickBot="1">
       <c r="A24" s="10"/>
       <c r="B24" s="18" t="s">
         <v>1</v>
@@ -16664,7 +16664,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>0</v>
@@ -16709,7 +16709,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>2</v>
@@ -16738,7 +16738,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>3</v>
@@ -16775,7 +16775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>4</v>
@@ -16812,7 +16812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>5</v>
@@ -16849,7 +16849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>6</v>
@@ -16886,7 +16886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>7</v>
@@ -16919,7 +16919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="19.5" thickBot="1">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -16952,7 +16952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>9</v>
@@ -16975,7 +16975,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>10</v>
@@ -16998,7 +16998,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>11</v>
@@ -17021,7 +17021,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>15</v>
@@ -17044,7 +17044,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="10"/>
       <c r="B37" s="19" t="s">
         <v>37</v>
@@ -17067,7 +17067,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>40</v>
@@ -17090,7 +17090,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>39</v>
@@ -17113,7 +17113,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="10"/>
       <c r="B40" s="20" t="s">
         <v>38</v>
@@ -17136,7 +17136,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1">
       <c r="A41" s="10"/>
       <c r="B41" s="17"/>
       <c r="C41" s="12"/>
@@ -17157,14 +17157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="C7:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -17175,7 +17175,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="34.5" thickBot="1">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -17187,7 +17187,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:15" ht="33.75">
       <c r="A4" s="10"/>
       <c r="B4" s="22" t="s">
         <v>44</v>
@@ -17205,7 +17205,7 @@
       <c r="M4" s="10"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -17222,7 +17222,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="75">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
         <v>1</v>
@@ -17244,7 +17244,7 @@
       <c r="M6" s="10"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -17275,7 +17275,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -17296,7 +17296,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -17317,7 +17317,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -17338,7 +17338,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -17359,7 +17359,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -17380,7 +17380,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -17401,7 +17401,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
@@ -17424,7 +17424,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
@@ -17445,7 +17445,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
@@ -17466,7 +17466,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -17487,7 +17487,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="10"/>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -17508,7 +17508,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="10"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
@@ -17529,7 +17529,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="10"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -17550,7 +17550,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="10"/>
       <c r="B21" s="19" t="s">
         <v>39</v>
@@ -17571,7 +17571,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>38</v>
@@ -17592,7 +17592,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -17607,7 +17607,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>36</v>
@@ -17624,7 +17624,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="75.75" thickBot="1">
       <c r="A25" s="10"/>
       <c r="B25" s="18" t="s">
         <v>1</v>
@@ -17648,7 +17648,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -17693,7 +17693,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -17722,7 +17722,7 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
         <v>3</v>
@@ -17759,7 +17759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>4</v>
@@ -17796,7 +17796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
         <v>5</v>
@@ -17833,7 +17833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
         <v>6</v>
@@ -17870,7 +17870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
         <v>7</v>
@@ -17903,7 +17903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="19.5" thickBot="1">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -17936,7 +17936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
         <v>10</v>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
         <v>11</v>
@@ -18005,7 +18005,7 @@
       </c>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
         <v>15</v>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="10"/>
       <c r="B38" s="19" t="s">
         <v>37</v>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="10"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
@@ -18074,7 +18074,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="10"/>
       <c r="B40" s="19" t="s">
         <v>39</v>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="10"/>
       <c r="B41" s="20" t="s">
         <v>38</v>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
       <c r="A42" s="10"/>
       <c r="B42" s="17"/>
       <c r="C42" s="12"/>
@@ -18141,14 +18141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -18159,7 +18159,7 @@
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="34.15" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:16" ht="34.5" thickBot="1">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -18171,7 +18171,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:16" ht="33.75">
       <c r="B4" s="10"/>
       <c r="C4" s="22" t="s">
         <v>41</v>
@@ -18189,7 +18189,7 @@
       <c r="N4" s="10"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -18206,7 +18206,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="75">
       <c r="B6" s="10"/>
       <c r="C6" s="18" t="s">
         <v>1</v>
@@ -18228,7 +18228,7 @@
       <c r="N6" s="10"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16">
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
         <v>0</v>
@@ -18257,7 +18257,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -18278,7 +18278,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="10"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -18299,7 +18299,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -18320,7 +18320,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="10"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -18341,7 +18341,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -18362,7 +18362,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="10"/>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -18383,7 +18383,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -18406,7 +18406,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
@@ -18427,7 +18427,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -18448,7 +18448,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
         <v>11</v>
@@ -18469,7 +18469,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -18490,7 +18490,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="10"/>
       <c r="C19" s="19" t="s">
         <v>37</v>
@@ -18511,7 +18511,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="10"/>
       <c r="C20" s="19" t="s">
         <v>40</v>
@@ -18532,7 +18532,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
@@ -18553,7 +18553,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="10"/>
       <c r="C22" s="20" t="s">
         <v>38</v>
@@ -18574,7 +18574,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="10"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18589,7 +18589,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -18606,7 +18606,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="75.75" thickBot="1">
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">
         <v>1</v>
@@ -18632,7 +18632,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="45">
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>0</v>
@@ -18675,7 +18675,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
       <c r="B27" s="10"/>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -18708,7 +18708,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="18.75">
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>3</v>
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="18.75">
       <c r="B29" s="10"/>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -18790,7 +18790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="18.75">
       <c r="B30" s="10"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -18831,7 +18831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="18.75">
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -18872,7 +18872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="18.75">
       <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>7</v>
@@ -18909,7 +18909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18" ht="19.5" thickBot="1">
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -18946,7 +18946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18">
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -18973,7 +18973,7 @@
       </c>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18">
       <c r="B35" s="10"/>
       <c r="C35" s="7" t="s">
         <v>10</v>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18">
       <c r="B36" s="10"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="2:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18">
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="10"/>
       <c r="C38" s="19" t="s">
         <v>37</v>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="10"/>
       <c r="C39" s="19" t="s">
         <v>40</v>
@@ -19108,7 +19108,7 @@
       </c>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18">
       <c r="B40" s="10"/>
       <c r="C40" s="19" t="s">
         <v>39</v>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="10"/>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="15.75" thickBot="1">
       <c r="B42" s="10"/>
       <c r="C42" s="17"/>
       <c r="D42" s="12"/>
